--- a/dati_test.xlsx
+++ b/dati_test.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pdellibergoli/Documents/QA/aiprojectTA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pdellibergoli/Documents/QA/aitestautomation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9414DB6D-03BB-DF41-8737-A55D2CB668AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2210168E-A228-E345-B5A7-7E7DB2BE699C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="74620" yWindow="2640" windowWidth="28040" windowHeight="17440" xr2:uid="{CAA41664-5407-FC4D-B540-0BAAA3EF123C}"/>
+    <workbookView xWindow="36760" yWindow="1120" windowWidth="34620" windowHeight="17440" xr2:uid="{CAA41664-5407-FC4D-B540-0BAAA3EF123C}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
   <si>
     <t>TestID</t>
   </si>
@@ -53,28 +54,88 @@
     <t>Verificare l'accesso con credenziali valide</t>
   </si>
   <si>
+    <t>Execution</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>DeviceName</t>
+  </si>
+  <si>
+    <t>AppID</t>
+  </si>
+  <si>
+    <t>UDID</t>
+  </si>
+  <si>
+    <t>AppPackage</t>
+  </si>
+  <si>
+    <t>AppActivity</t>
+  </si>
+  <si>
+    <t>ch.corner.card.mobile.cornercard</t>
+  </si>
+  <si>
+    <t>com.CornerCard</t>
+  </si>
+  <si>
+    <t>.MainActivity</t>
+  </si>
+  <si>
+    <t>00008120-000904680C7BA01E</t>
+  </si>
+  <si>
+    <t>ios</t>
+  </si>
+  <si>
+    <t>RFCR30NSPPM</t>
+  </si>
+  <si>
     <t>TC-002</t>
   </si>
   <si>
-    <t>Verificare la creazione di un nuovo utente</t>
-  </si>
-  <si>
-    <t>Apri il sito https://www.automationexercise.com/ e se visibile, chiudi il popup dei cookie. Naviga sulla pagina Sign Up / Login e fai login utilizzando il testQA@test.com e testQA come password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apri il sito https://www.automationexercise.com/ e se visibile, chiudi il popup dei cookie. Senza fare altre azioni, verifica che in alto ci sia "Logout" con un icona a forma di lucchetto di fianco, altrimenti fai fallire il test </t>
+    <t>local</t>
+  </si>
+  <si>
+    <t>android</t>
+  </si>
+  <si>
+    <t>Galaxy S21 5G</t>
+  </si>
+  <si>
+    <t>lt://APP10160572041756721529407223</t>
+  </si>
+  <si>
+    <t>Apri l'app fai tap su next fino a che compaia il pulsante 'I'M ALREADY A CLIENT', poi tappi su 'LOGIN', inserisci nome albust1_8011766338 e password Corner11!! e fai tap su LOG IN, nella schermata successiva inserisci l'OTP 000000. Attiva la biometria, se l'app mostra le terms &amp; condition devi scrollare (dal basso all'alto) le condizioni fino in fondo per poter proseguire. Dovresti poi atterrare sulla home page dell'app, dove visualizzi in basso il bottone Profilo</t>
+  </si>
+  <si>
+    <t>iPhone 15</t>
+  </si>
+  <si>
+    <t>Apri l'app fai tap su next fino a che compaia il pulsante 'I'M ALREADY A CLIENT', poi tappi su 'LOGIN', inserisci nome albust1_8011766338 nel campo nome utente, ora nel campo password inserisci Corner11!! e fai tap su LOG IN, nella schermata successiva inserisci l'OTP 000000. Attiva la biometria, se l'app mostra le terms &amp; condition devi scrollare (dal basso all'alto) le condizioni fino in fondo per poter proseguire. Chiudi eventuali pop up. Dovresti poi atterrare sulla home page dell'app, dove visualizzi in basso il bottone Profilo</t>
+  </si>
+  <si>
+    <t>com.apple.mobiletimer</t>
+  </si>
+  <si>
+    <t>Verificare il timer</t>
+  </si>
+  <si>
+    <t>Verificare il cronometro</t>
+  </si>
+  <si>
+    <t>Apri l'app, e aggiungi una nuova sveglia, verifica che la sveglia sia stata correttamente aggiunta, successivamente elimina la sveglia facendo swipe da destra a sinistra su di essa e tappando su elimina e verifica che sia sta eliminata</t>
+  </si>
+  <si>
+    <t>Apri l'app, e avvia il cronometro, dopo 5 secondi tappa su interrompi. Verifica che si sia fermato correttamente in quando il pulsante avvia è di nuovo visibile</t>
   </si>
   <si>
     <t>TC-003</t>
   </si>
   <si>
-    <t>TC-004</t>
-  </si>
-  <si>
-    <t>Verifica acquisti</t>
-  </si>
-  <si>
-    <t>Execution</t>
+    <t>Apri l'app avvia il cronometro e verifica che sia azzerato senza fare alcuna azione, altrimenti il test fallisce</t>
   </si>
   <si>
     <t>TRUE</t>
@@ -83,7 +144,10 @@
     <t>FALSE</t>
   </si>
   <si>
-    <t>Apri il sito https://www.automationexercise.com/ e se visibile, chiudi il popup dei cookie. Naviga sulla pagina Sign Up / Login e fai login utilizzando il testQA@test.com e testQA come password. Vai nella pagina degli articoli, scrolla leggermente in basso per visualizzare i pulsanti di aggiunta al carrello e aggiungi i primi 2 articoli a carrello , dopo vai nel carrello (c'è l'icona in alto) e procedi con l'ordine, verifica che l'ordine è stato correttamente inviato.</t>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>mobile</t>
   </si>
   <si>
     <t>1.  Open the website https://www.automationexercise.com/;
@@ -92,12 +156,42 @@
 4.  Fill in the address fields, being careful not to scroll too far and miss any fields to fill out, and click 'Create Account';
 5.  The "Account Created!" message must be visible.</t>
   </si>
+  <si>
+    <t>Verificare la creazione di un nuovo utente</t>
+  </si>
+  <si>
+    <t>Apri il sito https://www.automationexercise.com/ e se visibile, chiudi il popup dei cookie. Naviga sulla pagina Sign Up / Login e fai login utilizzando il testQA@test.com e testQA come password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apri il sito https://www.automationexercise.com/ e se visibile, chiudi il popup dei cookie. Senza fare altre azioni, verifica che in alto ci sia "Logout" con un icona a forma di lucchetto di fianco, altrimenti fai fallire il test </t>
+  </si>
+  <si>
+    <t>TC-004</t>
+  </si>
+  <si>
+    <t>Apri il sito https://www.automationexercise.com/ e se visibile, chiudi il popup dei cookie. Naviga sulla pagina Sign Up / Login e fai login utilizzando il testQA@test.com e testQA come password. Vai nella pagina degli articoli, scrolla leggermente in basso per visualizzare i pulsanti di aggiunta al carrello e aggiungi i primi 2 articoli a carrello , dopo vai nel carrello (c'è l'icona in alto) e procedi con l'ordine, verifica che l'ordine è stato correttamente inviato.</t>
+  </si>
+  <si>
+    <t>Verifica acquisti</t>
+  </si>
+  <si>
+    <t>TC-005</t>
+  </si>
+  <si>
+    <t>TC-006</t>
+  </si>
+  <si>
+    <t>TC-007</t>
+  </si>
+  <si>
+    <t>web</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -107,6 +201,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -129,19 +231,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -495,92 +614,228 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FECC11-2A4F-9540-B797-77565DCF048E}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="118.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="128" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" customWidth="1"/>
+    <col min="9" max="9" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="102" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
+      <c r="G2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+      <c r="D12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D1592">
+  <conditionalFormatting sqref="D2:D8">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="True">
       <formula>NOT(ISERROR(SEARCH("True",D2)))</formula>
     </cfRule>
@@ -589,10 +844,83 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5" xr:uid="{08C7143A-2325-8144-A969-DE58A31492ED}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D8" xr:uid="{58CAC937-DDE2-5D41-82DF-6FE46DAC17A6}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D54764-4C00-9248-82DC-979576B6F611}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dati_test.xlsx
+++ b/dati_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pdellibergoli/Documents/QA/aitestautomation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2210168E-A228-E345-B5A7-7E7DB2BE699C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE94C55F-CBD9-194D-BFB4-E0589A2A9572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36760" yWindow="1120" windowWidth="34620" windowHeight="17440" xr2:uid="{CAA41664-5407-FC4D-B540-0BAAA3EF123C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
   <si>
     <t>TestID</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>web</t>
+  </si>
+  <si>
+    <t>Active</t>
   </si>
 </sst>
 </file>
@@ -263,7 +266,27 @@
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -614,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FECC11-2A4F-9540-B797-77565DCF048E}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -625,15 +648,15 @@
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="128" style="1" customWidth="1"/>
     <col min="3" max="3" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5" customWidth="1"/>
-    <col min="8" max="8" width="34.33203125" customWidth="1"/>
-    <col min="9" max="9" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5" customWidth="1"/>
+    <col min="9" max="9" width="34.33203125" customWidth="1"/>
+    <col min="10" max="10" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -644,31 +667,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -679,27 +705,30 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" t="s">
+      <c r="J2" s="1"/>
+      <c r="K2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -712,25 +741,28 @@
       <c r="D3" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" t="s">
+      <c r="J3" s="1"/>
+      <c r="K3" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>31</v>
       </c>
@@ -743,25 +775,28 @@
       <c r="D4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" t="s">
+      <c r="J4" s="1"/>
+      <c r="K4" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>41</v>
       </c>
@@ -774,11 +809,14 @@
       <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>44</v>
       </c>
@@ -789,13 +827,16 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>45</v>
       </c>
@@ -808,11 +849,14 @@
       <c r="D7" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>46</v>
       </c>
@@ -825,27 +869,34 @@
       <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D8">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="True">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="True">
       <formula>NOT(ISERROR(SEARCH("True",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="False">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="False">
       <formula>NOT(ISERROR(SEARCH("False",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D8" xr:uid="{58CAC937-DDE2-5D41-82DF-6FE46DAC17A6}">
       <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E8" xr:uid="{F285D54F-2008-BD40-90AE-5A7FD98EB68F}">
+      <formula1>"local,cloud"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dati_test.xlsx
+++ b/dati_test.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pdellibergoli/Documents/QA/aitestautomation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE94C55F-CBD9-194D-BFB4-E0589A2A9572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F3DD69-F0D0-3847-A940-9DBE1C62A489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36760" yWindow="1120" windowWidth="34620" windowHeight="17440" xr2:uid="{CAA41664-5407-FC4D-B540-0BAAA3EF123C}"/>
+    <workbookView xWindow="74060" yWindow="3120" windowWidth="34620" windowHeight="17440" xr2:uid="{CAA41664-5407-FC4D-B540-0BAAA3EF123C}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
-    <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
   <si>
     <t>TestID</t>
   </si>
@@ -75,52 +74,25 @@
     <t>AppActivity</t>
   </si>
   <si>
-    <t>ch.corner.card.mobile.cornercard</t>
-  </si>
-  <si>
-    <t>com.CornerCard</t>
-  </si>
-  <si>
-    <t>.MainActivity</t>
-  </si>
-  <si>
     <t>00008120-000904680C7BA01E</t>
   </si>
   <si>
     <t>ios</t>
   </si>
   <si>
-    <t>RFCR30NSPPM</t>
-  </si>
-  <si>
     <t>TC-002</t>
   </si>
   <si>
     <t>local</t>
   </si>
   <si>
-    <t>android</t>
-  </si>
-  <si>
-    <t>Galaxy S21 5G</t>
-  </si>
-  <si>
     <t>lt://APP10160572041756721529407223</t>
   </si>
   <si>
-    <t>Apri l'app fai tap su next fino a che compaia il pulsante 'I'M ALREADY A CLIENT', poi tappi su 'LOGIN', inserisci nome albust1_8011766338 e password Corner11!! e fai tap su LOG IN, nella schermata successiva inserisci l'OTP 000000. Attiva la biometria, se l'app mostra le terms &amp; condition devi scrollare (dal basso all'alto) le condizioni fino in fondo per poter proseguire. Dovresti poi atterrare sulla home page dell'app, dove visualizzi in basso il bottone Profilo</t>
-  </si>
-  <si>
     <t>iPhone 15</t>
   </si>
   <si>
-    <t>Apri l'app fai tap su next fino a che compaia il pulsante 'I'M ALREADY A CLIENT', poi tappi su 'LOGIN', inserisci nome albust1_8011766338 nel campo nome utente, ora nel campo password inserisci Corner11!! e fai tap su LOG IN, nella schermata successiva inserisci l'OTP 000000. Attiva la biometria, se l'app mostra le terms &amp; condition devi scrollare (dal basso all'alto) le condizioni fino in fondo per poter proseguire. Chiudi eventuali pop up. Dovresti poi atterrare sulla home page dell'app, dove visualizzi in basso il bottone Profilo</t>
-  </si>
-  <si>
     <t>com.apple.mobiletimer</t>
-  </si>
-  <si>
-    <t>Verificare il timer</t>
   </si>
   <si>
     <t>Verificare il cronometro</t>
@@ -188,6 +160,12 @@
   </si>
   <si>
     <t>Active</t>
+  </si>
+  <si>
+    <t>Verificare la sveglia</t>
+  </si>
+  <si>
+    <t>cloud</t>
   </si>
 </sst>
 </file>
@@ -238,7 +216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -247,12 +225,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -266,27 +238,7 @@
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -639,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FECC11-2A4F-9540-B797-77565DCF048E}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -667,13 +619,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -698,182 +650,184 @@
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>29</v>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="1"/>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -884,10 +838,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D8">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="True">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="True">
       <formula>NOT(ISERROR(SEARCH("True",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="False">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="False">
       <formula>NOT(ISERROR(SEARCH("False",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -901,77 +855,4 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D54764-4C00-9248-82DC-979576B6F611}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/dati_test.xlsx
+++ b/dati_test.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Foglio1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Foglio1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>

--- a/dati_test.xlsx
+++ b/dati_test.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Foglio1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -739,7 +739,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Verificare l'accesso con credenziali valide</t>
+          <t>Verifica utenza non loggata</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">

--- a/dati_test.xlsx
+++ b/dati_test.xlsx
@@ -611,7 +611,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Verificare il cronometro</t>
+          <t>Verificare il cronometro azzerato</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>

--- a/dati_test.xlsx
+++ b/dati_test.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Foglio1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Foglio1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>

--- a/dati_test.xlsx
+++ b/dati_test.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Foglio1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -803,6 +803,38 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>TEST_CASE_8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Verifica upload</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Apri il sito https://www.zamzar.com/ e clicca sull'icona "triangolo rovesciato" di fianco a"Choose file" e seleziona da URL, incolla https://avatars.githubusercontent.com/u/192012301?s=48&amp;v=4 e verifica l'upload</t>
+        </is>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>web</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dati_test.xlsx
+++ b/dati_test.xlsx
@@ -816,7 +816,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Apri il sito https://www.zamzar.com/ e clicca sull'icona "triangolo rovesciato" di fianco a"Choose file" e seleziona da URL, incolla https://avatars.githubusercontent.com/u/192012301?s=48&amp;v=4 e verifica l'upload</t>
+          <t>Apri il sito https://www.zamzar.com/ e clicca sull'icona "triangolo rovesciato" di fianco a"Choose file" e seleziona da URL, incolla https://yavuzceliker.github.io/sample-images/image-1021.jpg, clicca su "Add" e poi "Close", poi clicca su "convert to" e seleziona ico, successivamente clicca su "convert now". Attendi il processo e verifica se la conversione sia avvenuta con successo verificando la presenza del bottone "Download" nella nuova pagina aperta, considera che impiega più di 5 secondi la conversione</t>
         </is>
       </c>
       <c r="D9" t="b">
